--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1738949.818284438</v>
+        <v>1817928.646885345</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13251674.51004885</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065046.85755849</v>
+        <v>612367.9462114756</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6518025.139461252</v>
+        <v>6971672.107155596</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
         <v>19.05969460684969</v>
@@ -668,13 +670,13 @@
         <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>20.87293999249374</v>
+        <v>38.53869160910906</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -713,13 +715,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>57.0676845728945</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>128.9342698104349</v>
       </c>
       <c r="C4" t="n">
-        <v>115.4614941327447</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
@@ -877,7 +879,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
@@ -893,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>14.94721823158767</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>212.8641360409526</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
@@ -1060,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>101.9929615813396</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
@@ -1111,10 +1113,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>220.5782667550634</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
@@ -1133,25 +1135,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
         <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>59.15004043304375</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>22.51978202893052</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>2.669536049219191</v>
+        <v>38.70717332127965</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
@@ -1309,7 +1311,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1341,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -1354,10 +1356,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1376,19 +1378,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407063</v>
       </c>
       <c r="I11" t="n">
-        <v>34.54790254396354</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,19 +1426,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>226.7989717037967</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1528,7 +1530,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>36.20566991265306</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>60.29055953944207</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -1613,19 +1615,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>34.54790254396354</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>257.0886989602384</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439315</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1780,10 +1782,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>26.18919567502327</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
@@ -1822,16 +1824,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>198.8689810220767</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1858,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864467</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
         <v>294.8896947407055</v>
@@ -1907,7 +1909,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439315</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.37019004254096</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
@@ -2050,25 +2052,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>115.1055716303386</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2090,7 +2092,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924947</v>
       </c>
       <c r="G20" t="n">
         <v>400.2956717864458</v>
@@ -2099,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396431</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
@@ -2251,13 +2253,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>43.04728300932811</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,19 +2295,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>50.35656538887095</v>
       </c>
     </row>
     <row r="23">
@@ -2479,13 +2481,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
@@ -2524,13 +2526,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>110.0245581786281</v>
+        <v>269.9987038459962</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>184.6846902698393</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
@@ -2719,19 +2721,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087139</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,19 +2766,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>73.50111029899487</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2953,10 +2955,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3004,7 +3006,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>164.4219176303181</v>
+        <v>167.2844362744924</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3190,22 +3192,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>221.6885862577654</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
@@ -3250,10 +3252,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>34.53558964739547</v>
       </c>
     </row>
     <row r="35">
@@ -3332,7 +3334,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446598</v>
       </c>
     </row>
     <row r="36">
@@ -3430,19 +3432,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
@@ -3481,10 +3483,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>45.22125567436197</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>11.27919891542012</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486156</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.3236211855901</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
         <v>218.7163152458132</v>
@@ -3658,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4.427271746383433</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
         <v>142.3583058069271</v>
@@ -3706,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3740,7 +3742,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>270.3894424977268</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -3755,7 +3757,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -3788,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3898,25 +3900,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>92.32874517784686</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>123.0673923170405</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3958,10 +3960,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>294.2452209817804</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>421.717170453622</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
         <v>218.7163152458132</v>
@@ -4034,10 +4036,10 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
@@ -4132,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>170.2528374898699</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>134.4070802146375</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
@@ -4189,7 +4191,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -4198,7 +4200,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>123.7434376690431</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533.9701437626245</v>
+        <v>843.8866260837963</v>
       </c>
       <c r="C2" t="n">
-        <v>107.0694137759246</v>
+        <v>821.0263001375005</v>
       </c>
       <c r="D2" t="n">
-        <v>87.81719700132894</v>
+        <v>801.7740833629048</v>
       </c>
       <c r="E2" t="n">
-        <v>65.88066118959054</v>
+        <v>779.8375475511664</v>
       </c>
       <c r="F2" t="n">
-        <v>44.79688341939484</v>
+        <v>740.909576228834</v>
       </c>
       <c r="G2" t="n">
-        <v>44.49822504924753</v>
+        <v>336.5705138182826</v>
       </c>
       <c r="H2" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231745</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231745</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924753</v>
+        <v>401.305594109213</v>
       </c>
       <c r="K2" t="n">
-        <v>116.829168004879</v>
+        <v>859.6725812491131</v>
       </c>
       <c r="L2" t="n">
-        <v>116.829168004879</v>
+        <v>859.6725812491131</v>
       </c>
       <c r="M2" t="n">
-        <v>116.829168004879</v>
+        <v>1338.611505491541</v>
       </c>
       <c r="N2" t="n">
-        <v>667.4947029893171</v>
+        <v>1817.55042973397</v>
       </c>
       <c r="O2" t="n">
-        <v>1218.160237973755</v>
+        <v>1817.55042973397</v>
       </c>
       <c r="P2" t="n">
-        <v>1768.825772958194</v>
+        <v>1817.55042973397</v>
       </c>
       <c r="Q2" t="n">
-        <v>2224.911252462377</v>
+        <v>1817.55042973397</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="S2" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="T2" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="U2" t="n">
-        <v>2167.26712663117</v>
+        <v>1676.751855212285</v>
       </c>
       <c r="V2" t="n">
-        <v>2167.26712663117</v>
+        <v>1676.751855212285</v>
       </c>
       <c r="W2" t="n">
-        <v>1770.875776931517</v>
+        <v>1676.751855212285</v>
       </c>
       <c r="X2" t="n">
-        <v>1359.155778099264</v>
+        <v>1265.031856380032</v>
       </c>
       <c r="Y2" t="n">
-        <v>953.8185080541546</v>
+        <v>859.6945863349223</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>983.3471129133217</v>
+        <v>605.8256263237727</v>
       </c>
       <c r="C3" t="n">
-        <v>865.8412094308264</v>
+        <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>762.0012509461114</v>
+        <v>384.4797643565625</v>
       </c>
       <c r="E3" t="n">
-        <v>657.2993172190487</v>
+        <v>279.7778306294997</v>
       </c>
       <c r="F3" t="n">
-        <v>563.6534869019529</v>
+        <v>186.1320003124039</v>
       </c>
       <c r="G3" t="n">
-        <v>469.5997151195569</v>
+        <v>92.07822853000786</v>
       </c>
       <c r="H3" t="n">
-        <v>416.2236218818665</v>
+        <v>38.70213529231745</v>
       </c>
       <c r="I3" t="n">
-        <v>423.6702648437783</v>
+        <v>46.14877825422929</v>
       </c>
       <c r="J3" t="n">
-        <v>423.6702648437783</v>
+        <v>317.8462675338204</v>
       </c>
       <c r="K3" t="n">
-        <v>423.6702648437783</v>
+        <v>796.7851917762488</v>
       </c>
       <c r="L3" t="n">
-        <v>974.3357998282165</v>
+        <v>796.7851917762488</v>
       </c>
       <c r="M3" t="n">
-        <v>974.3357998282165</v>
+        <v>822.2860546829163</v>
       </c>
       <c r="N3" t="n">
-        <v>1128.080930530456</v>
+        <v>822.2860546829163</v>
       </c>
       <c r="O3" t="n">
-        <v>1128.080930530456</v>
+        <v>822.2860546829163</v>
       </c>
       <c r="P3" t="n">
-        <v>1678.746465514894</v>
+        <v>1301.224978925345</v>
       </c>
       <c r="Q3" t="n">
-        <v>2142.891942377673</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="R3" t="n">
-        <v>2224.911252462377</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>2143.587005023631</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>2001.707069321309</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1816.938873240946</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1611.965734380212</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1415.444357213429</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>1251.967010980092</v>
+        <v>874.445524390543</v>
       </c>
       <c r="Y3" t="n">
-        <v>1112.274122333384</v>
+        <v>734.7526357438354</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>590.468307739226</v>
+        <v>38.70213529231745</v>
       </c>
       <c r="C4" t="n">
-        <v>473.8405358879687</v>
+        <v>38.70213529231745</v>
       </c>
       <c r="D4" t="n">
-        <v>310.5237630147394</v>
+        <v>38.70213529231745</v>
       </c>
       <c r="E4" t="n">
-        <v>310.5237630147394</v>
+        <v>38.70213529231745</v>
       </c>
       <c r="F4" t="n">
-        <v>310.5237630147394</v>
+        <v>38.70213529231745</v>
       </c>
       <c r="G4" t="n">
-        <v>144.2667933089716</v>
+        <v>38.70213529231745</v>
       </c>
       <c r="H4" t="n">
-        <v>144.2667933089716</v>
+        <v>38.70213529231745</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231745</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734058</v>
+        <v>96.19346351647548</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792431</v>
+        <v>322.7210647223127</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736639</v>
+        <v>393.4019879271597</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743915</v>
+        <v>784.5877828974105</v>
       </c>
       <c r="N4" t="n">
-        <v>1451.88378161995</v>
+        <v>1162.079293773446</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299714</v>
+        <v>1517.50742245321</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221615</v>
+        <v>1808.10663437511</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="R4" t="n">
-        <v>2224.911252462377</v>
+        <v>1888.068151303046</v>
       </c>
       <c r="S4" t="n">
-        <v>2054.776204981511</v>
+        <v>1717.933103822181</v>
       </c>
       <c r="T4" t="n">
-        <v>1811.436857207411</v>
+        <v>1474.593756048081</v>
       </c>
       <c r="U4" t="n">
-        <v>1531.252408707716</v>
+        <v>1194.409307548385</v>
       </c>
       <c r="V4" t="n">
-        <v>1249.540941315744</v>
+        <v>912.6978401564138</v>
       </c>
       <c r="W4" t="n">
-        <v>1249.540941315744</v>
+        <v>637.8454363289268</v>
       </c>
       <c r="X4" t="n">
-        <v>1006.97704476155</v>
+        <v>395.2815397747319</v>
       </c>
       <c r="Y4" t="n">
-        <v>780.6342764512916</v>
+        <v>168.9387714644739</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>568.8670150191533</v>
+        <v>2185.028631180769</v>
       </c>
       <c r="C5" t="n">
-        <v>141.9662850324534</v>
+        <v>1758.12790119407</v>
       </c>
       <c r="D5" t="n">
-        <v>122.7140682578577</v>
+        <v>1334.83528037907</v>
       </c>
       <c r="E5" t="n">
-        <v>100.7775324461193</v>
+        <v>908.8583405269275</v>
       </c>
       <c r="F5" t="n">
-        <v>79.69375467592363</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G5" t="n">
         <v>79.39509630577632</v>
@@ -4568,22 +4570,22 @@
         <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>667.4947029893171</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L5" t="n">
-        <v>667.4947029893171</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M5" t="n">
-        <v>1218.160237973755</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="N5" t="n">
-        <v>1768.825772958194</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O5" t="n">
-        <v>1768.825772958194</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P5" t="n">
-        <v>1768.825772958194</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q5" t="n">
         <v>2224.911252462377</v>
@@ -4595,22 +4597,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462377</v>
+        <v>2209.81305222845</v>
       </c>
       <c r="U5" t="n">
-        <v>1966.556343058789</v>
+        <v>2209.81305222845</v>
       </c>
       <c r="V5" t="n">
-        <v>1609.066928185038</v>
+        <v>2209.81305222845</v>
       </c>
       <c r="W5" t="n">
-        <v>1609.066928185038</v>
+        <v>2209.81305222845</v>
       </c>
       <c r="X5" t="n">
-        <v>1394.052649355793</v>
+        <v>2202.133457436601</v>
       </c>
       <c r="Y5" t="n">
-        <v>988.7153793106834</v>
+        <v>2200.836591431896</v>
       </c>
     </row>
     <row r="6">
@@ -4641,31 +4643,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>51.94486801115937</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K6" t="n">
-        <v>119.1699405917395</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L6" t="n">
-        <v>669.8354755761777</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="M6" t="n">
-        <v>1220.501010560616</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="N6" t="n">
-        <v>1220.501010560616</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="O6" t="n">
-        <v>1771.166545545054</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P6" t="n">
-        <v>1771.166545545054</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q6" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>792.5008004748155</v>
+        <v>485.750951392604</v>
       </c>
       <c r="C7" t="n">
-        <v>620.5282373537315</v>
+        <v>313.77838827152</v>
       </c>
       <c r="D7" t="n">
-        <v>620.5282373537315</v>
+        <v>313.77838827152</v>
       </c>
       <c r="E7" t="n">
-        <v>454.3200315065851</v>
+        <v>313.77838827152</v>
       </c>
       <c r="F7" t="n">
-        <v>454.3200315065851</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4744,31 +4746,31 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894584</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="U7" t="n">
-        <v>1484.213795394888</v>
+        <v>1701.387456188581</v>
       </c>
       <c r="V7" t="n">
-        <v>1261.407465339268</v>
+        <v>1419.67598879661</v>
       </c>
       <c r="W7" t="n">
-        <v>1261.407465339268</v>
+        <v>1144.823584969123</v>
       </c>
       <c r="X7" t="n">
-        <v>1018.843568785073</v>
+        <v>902.2596884149276</v>
       </c>
       <c r="Y7" t="n">
-        <v>792.5008004748155</v>
+        <v>675.9169201046697</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>487.2469754669713</v>
+        <v>1376.947823099961</v>
       </c>
       <c r="C8" t="n">
-        <v>464.3866495206755</v>
+        <v>950.0470931132616</v>
       </c>
       <c r="D8" t="n">
-        <v>445.1344327460799</v>
+        <v>526.7544722982618</v>
       </c>
       <c r="E8" t="n">
-        <v>423.1978969343415</v>
+        <v>504.8179364865234</v>
       </c>
       <c r="F8" t="n">
-        <v>402.1141191641458</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G8" t="n">
-        <v>342.3666035752127</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
@@ -4808,19 +4810,19 @@
         <v>595.1637600336857</v>
       </c>
       <c r="L8" t="n">
+        <v>595.1637600336857</v>
+      </c>
+      <c r="M8" t="n">
         <v>1145.829295018124</v>
       </c>
-      <c r="M8" t="n">
-        <v>1696.494830002562</v>
-      </c>
       <c r="N8" t="n">
-        <v>2224.911252462377</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O8" t="n">
-        <v>2224.911252462377</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P8" t="n">
-        <v>2224.911252462377</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
         <v>2224.911252462377</v>
@@ -4829,25 +4831,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>2120.543958335517</v>
+        <v>2202.163997887699</v>
       </c>
       <c r="U8" t="n">
-        <v>2120.543958335517</v>
+        <v>2202.163997887699</v>
       </c>
       <c r="V8" t="n">
-        <v>2120.543958335517</v>
+        <v>2202.163997887699</v>
       </c>
       <c r="W8" t="n">
-        <v>1724.152608635864</v>
+        <v>1805.772648188046</v>
       </c>
       <c r="X8" t="n">
-        <v>1312.432609803611</v>
+        <v>1798.093053396197</v>
       </c>
       <c r="Y8" t="n">
-        <v>907.0953397585014</v>
+        <v>1796.796187391491</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>563.6534869019529</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>423.6702648437783</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>695.3677541233694</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K9" t="n">
-        <v>695.3677541233694</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="L9" t="n">
-        <v>695.3677541233694</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="M9" t="n">
-        <v>1246.033289107808</v>
+        <v>669.8354755761777</v>
       </c>
       <c r="N9" t="n">
-        <v>1796.698824092246</v>
+        <v>669.8354755761777</v>
       </c>
       <c r="O9" t="n">
-        <v>2224.911252462377</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="P9" t="n">
-        <v>2224.911252462377</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q9" t="n">
-        <v>2224.911252462377</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>628.878306791842</v>
+        <v>737.4839554633641</v>
       </c>
       <c r="C10" t="n">
-        <v>628.878306791842</v>
+        <v>565.51139234228</v>
       </c>
       <c r="D10" t="n">
-        <v>628.878306791842</v>
+        <v>565.51139234228</v>
       </c>
       <c r="E10" t="n">
-        <v>626.1818057320246</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F10" t="n">
-        <v>454.3200315065851</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G10" t="n">
-        <v>288.0630618008172</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4987,25 +4989,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2177.872639149549</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1934.533291375449</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>1654.348842875753</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>1372.637375483782</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W10" t="n">
-        <v>1097.784971656295</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X10" t="n">
-        <v>855.2210751020999</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="Y10" t="n">
-        <v>628.878306791842</v>
+        <v>927.6499241754298</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1247.640751080986</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C11" t="n">
-        <v>820.740021094286</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D11" t="n">
-        <v>397.4474002792862</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E11" t="n">
-        <v>397.4474002792862</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F11" t="n">
-        <v>397.4474002792862</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G11" t="n">
-        <v>397.4474002792862</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H11" t="n">
-        <v>99.57902175332102</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
-        <v>64.68215049679219</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>427.2856093136877</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K11" t="n">
-        <v>427.2856093136877</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L11" t="n">
-        <v>427.2856093136877</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M11" t="n">
-        <v>1227.727221711491</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N11" t="n">
-        <v>1860.02409805572</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O11" t="n">
-        <v>2660.465710453523</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P11" t="n">
-        <v>2660.465710453523</v>
+        <v>4565.888850239604</v>
       </c>
       <c r="Q11" t="n">
-        <v>3116.551189957706</v>
+        <v>5021.974329743787</v>
       </c>
       <c r="R11" t="n">
-        <v>3234.107524839609</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>3129.74023071275</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>2908.814659757383</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>2650.459750353795</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>2292.970335480044</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W11" t="n">
-        <v>1896.578985780391</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X11" t="n">
-        <v>1667.489115372516</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
-        <v>1667.489115372516</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>212.1120155168786</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>118.0582437344826</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>64.68215049679219</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>64.68215049679219</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>336.3796397763833</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K12" t="n">
-        <v>336.3796397763833</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L12" t="n">
-        <v>336.3796397763833</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M12" t="n">
-        <v>990.9088585947954</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N12" t="n">
-        <v>1791.350470992599</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O12" t="n">
-        <v>1791.350470992599</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P12" t="n">
-        <v>1791.350470992599</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
-        <v>1791.350470992599</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2001.474440579791</v>
+        <v>4017.903765402536</v>
       </c>
       <c r="C13" t="n">
-        <v>1964.903056829636</v>
+        <v>3845.931202281452</v>
       </c>
       <c r="D13" t="n">
-        <v>1801.586283956407</v>
+        <v>3682.614429408222</v>
       </c>
       <c r="E13" t="n">
-        <v>1635.378078109261</v>
+        <v>3516.406223561076</v>
       </c>
       <c r="F13" t="n">
-        <v>1463.516303883821</v>
+        <v>3344.544449335636</v>
       </c>
       <c r="G13" t="n">
-        <v>1297.259334178053</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H13" t="n">
-        <v>1153.463065686207</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I13" t="n">
-        <v>1053.694497426483</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J13" t="n">
-        <v>1111.185825650641</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K13" t="n">
-        <v>1337.713426856476</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L13" t="n">
-        <v>1692.402748150897</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M13" t="n">
-        <v>2083.588543121148</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N13" t="n">
-        <v>2461.080053997183</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O13" t="n">
-        <v>2816.508182676946</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P13" t="n">
-        <v>3107.107394598847</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q13" t="n">
-        <v>3234.107524839609</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R13" t="n">
-        <v>3234.107524839609</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S13" t="n">
-        <v>3234.107524839609</v>
+        <v>5007.197501888255</v>
       </c>
       <c r="T13" t="n">
-        <v>2990.768177065509</v>
+        <v>5007.197501888255</v>
       </c>
       <c r="U13" t="n">
-        <v>2990.768177065509</v>
+        <v>5007.197501888255</v>
       </c>
       <c r="V13" t="n">
-        <v>2709.056709673538</v>
+        <v>4725.486034496284</v>
       </c>
       <c r="W13" t="n">
-        <v>2434.204305846051</v>
+        <v>4450.633630668796</v>
       </c>
       <c r="X13" t="n">
-        <v>2191.640409291856</v>
+        <v>4208.069734114601</v>
       </c>
       <c r="Y13" t="n">
-        <v>2191.640409291856</v>
+        <v>4208.069734114601</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2205.212556628314</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>1778.311826641615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>1355.019205826615</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>929.0422659744722</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>503.9180841638724</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>99.57902175332102</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>99.57902175332102</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>64.68215049679219</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>64.68215049679219</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K14" t="n">
-        <v>715.2263527642967</v>
+        <v>195.4640539534684</v>
       </c>
       <c r="L14" t="n">
-        <v>1515.6679651621</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="M14" t="n">
-        <v>2316.109577559903</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N14" t="n">
-        <v>2316.109577559903</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O14" t="n">
-        <v>3116.551189957706</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P14" t="n">
-        <v>3116.551189957706</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q14" t="n">
-        <v>3116.551189957706</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R14" t="n">
-        <v>3234.107524839609</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>3234.107524839609</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>3234.107524839609</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
-        <v>3234.107524839609</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>2876.618109965858</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>2616.932555460567</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X14" t="n">
-        <v>2205.212556628314</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y14" t="n">
-        <v>2205.212556628314</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>212.1120155168786</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>118.0582437344826</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>64.68215049679219</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>64.68215049679219</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>336.3796397763833</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>336.3796397763833</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L15" t="n">
-        <v>336.3796397763833</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M15" t="n">
-        <v>336.3796397763833</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N15" t="n">
-        <v>1136.821252174187</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O15" t="n">
-        <v>1791.350470992599</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P15" t="n">
-        <v>1791.350470992599</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q15" t="n">
-        <v>1791.350470992599</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>876.122141640221</v>
+        <v>896.1687373222098</v>
       </c>
       <c r="C16" t="n">
-        <v>876.122141640221</v>
+        <v>896.1687373222098</v>
       </c>
       <c r="D16" t="n">
-        <v>712.8053687669917</v>
+        <v>732.8519644489805</v>
       </c>
       <c r="E16" t="n">
-        <v>546.5971629198452</v>
+        <v>566.6437586018341</v>
       </c>
       <c r="F16" t="n">
-        <v>374.7353886944056</v>
+        <v>394.7819843763945</v>
       </c>
       <c r="G16" t="n">
-        <v>208.4784189886378</v>
+        <v>228.5250146706266</v>
       </c>
       <c r="H16" t="n">
-        <v>64.68215049679219</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I16" t="n">
-        <v>64.68215049679219</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>122.1734787209502</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>348.7010799267874</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>703.3904012212082</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1094.576196191459</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1472.067707067495</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1827.495835747256</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2118.095047669157</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2245.095177909919</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2198.056564597092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2027.921517116227</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T16" t="n">
-        <v>1784.582169342127</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U16" t="n">
-        <v>1784.582169342127</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="V16" t="n">
-        <v>1583.704410733968</v>
+        <v>1587.529878172021</v>
       </c>
       <c r="W16" t="n">
-        <v>1308.852006906481</v>
+        <v>1312.677474344533</v>
       </c>
       <c r="X16" t="n">
-        <v>1066.288110352287</v>
+        <v>1312.677474344533</v>
       </c>
       <c r="Y16" t="n">
-        <v>1066.288110352287</v>
+        <v>1086.334706034276</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
         <v>435.0679631883225</v>
@@ -5513,22 +5515,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>1180.414480198223</v>
+        <v>533.9931985757493</v>
       </c>
       <c r="L17" t="n">
-        <v>2110.0395278175</v>
+        <v>1463.618246195026</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N17" t="n">
-        <v>4090.576687723259</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O17" t="n">
-        <v>4935.721337874071</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P17" t="n">
         <v>4997.579335409525</v>
@@ -5555,10 +5557,10 @@
         <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5592,16 +5594,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>374.0002026854196</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M18" t="n">
-        <v>1429.986740661465</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N18" t="n">
         <v>1910.990343986338</v>
@@ -5680,43 +5682,43 @@
         <v>741.0109641302445</v>
       </c>
       <c r="M19" t="n">
-        <v>1132.196759100494</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N19" t="n">
-        <v>1509.68826997653</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O19" t="n">
-        <v>1865.116398656293</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>2155.715610578194</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>2282.715740818956</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.677127506129</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2235.677127506129</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="T19" t="n">
-        <v>1992.337779732029</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="U19" t="n">
-        <v>1712.153331232333</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="V19" t="n">
-        <v>1430.441863840362</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W19" t="n">
-        <v>1430.441863840362</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X19" t="n">
-        <v>1187.877967286167</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y19" t="n">
-        <v>1187.877967286167</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="20">
@@ -5738,13 +5740,13 @@
         <v>1264.531207409475</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623581</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
@@ -5759,16 +5761,16 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2129.375202991803</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N20" t="n">
-        <v>3105.626261478504</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O20" t="n">
-        <v>3950.770911629316</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="P20" t="n">
-        <v>4659.050190787244</v>
+        <v>4798.855966881186</v>
       </c>
       <c r="Q20" t="n">
         <v>5115.135670291427</v>
@@ -5795,7 +5797,7 @@
         <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5835,16 +5837,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P21" t="n">
         <v>1910.990343986338</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3629.152125639724</v>
+        <v>1019.275630082919</v>
       </c>
       <c r="C22" t="n">
-        <v>3457.17956251864</v>
+        <v>847.303066961835</v>
       </c>
       <c r="D22" t="n">
-        <v>3293.86278964541</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="E22" t="n">
-        <v>3293.86278964541</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F22" t="n">
-        <v>3122.001015419971</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G22" t="n">
-        <v>3122.001015419971</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H22" t="n">
-        <v>2978.204746928125</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976534</v>
       </c>
       <c r="O22" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656297</v>
       </c>
       <c r="P22" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578198</v>
       </c>
       <c r="Q22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R22" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.677127506133</v>
       </c>
       <c r="S22" t="n">
-        <v>4897.962009497735</v>
+        <v>2065.542080025268</v>
       </c>
       <c r="T22" t="n">
-        <v>4654.622661723635</v>
+        <v>1822.202732251168</v>
       </c>
       <c r="U22" t="n">
-        <v>4654.622661723635</v>
+        <v>1542.018283751472</v>
       </c>
       <c r="V22" t="n">
-        <v>4372.911194331664</v>
+        <v>1260.306816359501</v>
       </c>
       <c r="W22" t="n">
-        <v>4098.058790504177</v>
+        <v>1260.306816359501</v>
       </c>
       <c r="X22" t="n">
-        <v>3855.494893949982</v>
+        <v>1260.306816359501</v>
       </c>
       <c r="Y22" t="n">
-        <v>3629.152125639724</v>
+        <v>1209.441598794985</v>
       </c>
     </row>
     <row r="23">
@@ -6005,10 +6007,10 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6075,16 +6077,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q24" t="n">
         <v>1910.990343986338</v>
@@ -6121,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1013.622061704626</v>
+        <v>1022.167063056836</v>
       </c>
       <c r="C25" t="n">
-        <v>841.6494985835419</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="D25" t="n">
-        <v>678.3327257103126</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E25" t="n">
-        <v>512.1245198631661</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F25" t="n">
         <v>512.1245198631661</v>
@@ -6172,25 +6174,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T25" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="U25" t="n">
-        <v>1954.406162673115</v>
+        <v>1962.951164025326</v>
       </c>
       <c r="V25" t="n">
-        <v>1672.694695281144</v>
+        <v>1681.239696633355</v>
       </c>
       <c r="W25" t="n">
-        <v>1672.694695281144</v>
+        <v>1681.239696633355</v>
       </c>
       <c r="X25" t="n">
-        <v>1430.130798726949</v>
+        <v>1438.67580007916</v>
       </c>
       <c r="Y25" t="n">
-        <v>1203.788030416692</v>
+        <v>1212.333031768902</v>
       </c>
     </row>
     <row r="26">
@@ -6312,7 +6314,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N27" t="n">
         <v>1910.990343986338</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>775.6620294727279</v>
+        <v>847.4138558574832</v>
       </c>
       <c r="C28" t="n">
-        <v>603.6894663516439</v>
+        <v>675.4412927363992</v>
       </c>
       <c r="D28" t="n">
-        <v>440.3726934784146</v>
+        <v>512.1245198631699</v>
       </c>
       <c r="E28" t="n">
-        <v>274.1644876312681</v>
+        <v>512.1245198631699</v>
       </c>
       <c r="F28" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631699</v>
       </c>
       <c r="G28" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6412,22 +6414,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T28" t="n">
-        <v>2065.542080025265</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U28" t="n">
-        <v>1991.298534268705</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V28" t="n">
-        <v>1709.587066876733</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W28" t="n">
-        <v>1434.734663049246</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="X28" t="n">
-        <v>1192.170766495052</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="Y28" t="n">
-        <v>965.8279981847936</v>
+        <v>1033.96404804924</v>
       </c>
     </row>
     <row r="29">
@@ -6464,25 +6466,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>533.9931985757493</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L29" t="n">
-        <v>1463.618246195026</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M29" t="n">
-        <v>2467.904347614084</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N29" t="n">
-        <v>3444.155406100785</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O29" t="n">
-        <v>4289.300056251597</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6595,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>440.483482374059</v>
+        <v>437.5920494001418</v>
       </c>
       <c r="C31" t="n">
-        <v>268.510919252975</v>
+        <v>265.6194862790578</v>
       </c>
       <c r="D31" t="n">
-        <v>268.510919252975</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E31" t="n">
         <v>102.3027134058285</v>
@@ -6631,40 +6633,40 @@
         <v>1132.196759100495</v>
       </c>
       <c r="N31" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976527</v>
       </c>
       <c r="O31" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656291</v>
       </c>
       <c r="P31" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578191</v>
       </c>
       <c r="Q31" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818953</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2235.677127506126</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2065.542080025261</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>1822.202732251161</v>
       </c>
       <c r="U31" t="n">
-        <v>1656.119987170036</v>
+        <v>1653.228554196118</v>
       </c>
       <c r="V31" t="n">
-        <v>1374.408519778064</v>
+        <v>1371.517086804147</v>
       </c>
       <c r="W31" t="n">
-        <v>1099.556115950577</v>
+        <v>1096.66468297666</v>
       </c>
       <c r="X31" t="n">
-        <v>856.9922193963826</v>
+        <v>854.1007864224655</v>
       </c>
       <c r="Y31" t="n">
-        <v>630.6494510861246</v>
+        <v>627.7580181122075</v>
       </c>
     </row>
     <row r="32">
@@ -6713,7 +6715,7 @@
         <v>3727.973228906364</v>
       </c>
       <c r="O32" t="n">
-        <v>4406.8563911335</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P32" t="n">
         <v>5115.135670291427</v>
@@ -6786,7 +6788,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N33" t="n">
         <v>1910.990343986338</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1085.715267670341</v>
+        <v>517.8401132784822</v>
       </c>
       <c r="C34" t="n">
-        <v>913.7427045492574</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="D34" t="n">
-        <v>750.4259316760281</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="E34" t="n">
-        <v>584.2177258288816</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="F34" t="n">
-        <v>412.355951603442</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G34" t="n">
-        <v>246.0989818976742</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H34" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6880,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S34" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T34" t="n">
-        <v>2282.715740818957</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U34" t="n">
-        <v>2058.787875912123</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V34" t="n">
-        <v>1777.076408520152</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W34" t="n">
-        <v>1502.224004692665</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X34" t="n">
-        <v>1502.224004692665</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y34" t="n">
-        <v>1275.881236382407</v>
+        <v>708.006081990548</v>
       </c>
     </row>
     <row r="35">
@@ -6920,13 +6922,13 @@
         <v>1690.508147261616</v>
       </c>
       <c r="E35" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
         <v>137.1995846623573</v>
@@ -6935,46 +6937,46 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.906172222724</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N35" t="n">
-        <v>4090.576687723259</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O35" t="n">
-        <v>4935.721337874071</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P35" t="n">
-        <v>4997.579335409523</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409523</v>
+        <v>5029.203358561359</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X35" t="n">
         <v>3365.887132399956</v>
@@ -7005,28 +7007,28 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G36" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H36" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>109.7493563677403</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>109.7493563677403</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K36" t="n">
-        <v>109.7493563677403</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>109.7493563677403</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>109.7493563677403</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N36" t="n">
-        <v>1199.06430284061</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O36" t="n">
         <v>1910.990343986338</v>
@@ -7069,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>609.4538236255814</v>
+        <v>1041.68756743822</v>
       </c>
       <c r="C37" t="n">
-        <v>437.4812605044974</v>
+        <v>869.7150043171358</v>
       </c>
       <c r="D37" t="n">
-        <v>274.1644876312681</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="E37" t="n">
-        <v>274.1644876312681</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F37" t="n">
-        <v>102.3027134058285</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G37" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7117,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.580693338092</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T37" t="n">
-        <v>1869.241345563992</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U37" t="n">
-        <v>1589.056897064296</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V37" t="n">
-        <v>1543.378861029587</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="W37" t="n">
-        <v>1268.5264572021</v>
+        <v>1700.760201014738</v>
       </c>
       <c r="X37" t="n">
-        <v>1025.962560647905</v>
+        <v>1458.196304460543</v>
       </c>
       <c r="Y37" t="n">
-        <v>799.6197923376471</v>
+        <v>1231.853536150285</v>
       </c>
     </row>
     <row r="38">
@@ -7163,7 +7165,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
         <v>137.1995846623573</v>
@@ -7172,52 +7174,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2036.213862444163</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>3012.464920930865</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="O38" t="n">
-        <v>3857.609571081677</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>4565.888850239604</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5021.974329743787</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="39">
@@ -7242,34 +7244,34 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>109.7493563677403</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>381.4468456473314</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K39" t="n">
-        <v>971.931772215671</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L39" t="n">
-        <v>971.931772215671</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M39" t="n">
-        <v>971.931772215671</v>
+        <v>1429.986740661465</v>
       </c>
       <c r="N39" t="n">
-        <v>971.931772215671</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O39" t="n">
-        <v>971.931772215671</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P39" t="n">
-        <v>1364.825557038856</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q39" t="n">
         <v>1828.971033901635</v>
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>512.0757560045446</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C40" t="n">
-        <v>512.0757560045446</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D40" t="n">
-        <v>512.0757560045446</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E40" t="n">
-        <v>345.8675501573981</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F40" t="n">
-        <v>345.8675501573981</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573981</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655525</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7354,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T40" t="n">
-        <v>1822.202732251165</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U40" t="n">
-        <v>1542.018283751469</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V40" t="n">
-        <v>1260.306816359498</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W40" t="n">
-        <v>985.454412532011</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X40" t="n">
-        <v>742.8905159778161</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y40" t="n">
-        <v>516.5477476675582</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2051.432475629217</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C41" t="n">
-        <v>1778.311826641614</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D41" t="n">
-        <v>1355.019205826615</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>929.0422659744721</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>503.9180841638723</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G41" t="n">
-        <v>99.57902175332094</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H41" t="n">
-        <v>99.57902175332094</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I41" t="n">
-        <v>64.68215049679215</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>64.68215049679215</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>259.1408732601128</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1059.582485657916</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>1860.024098055718</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N41" t="n">
-        <v>2660.465710453521</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O41" t="n">
-        <v>2660.465710453521</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="P41" t="n">
-        <v>2660.465710453521</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q41" t="n">
-        <v>3116.551189957705</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
-        <v>3234.107524839607</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>3234.107524839607</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>3234.107524839607</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
-        <v>3234.107524839607</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>2876.618109965857</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>2876.618109965857</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>2876.618109965857</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
-        <v>2471.280839920747</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>631.8056415282474</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C42" t="n">
-        <v>514.2997380457522</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D42" t="n">
-        <v>410.4597795610372</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E42" t="n">
-        <v>305.7578458339744</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F42" t="n">
-        <v>212.1120155168786</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G42" t="n">
-        <v>118.0582437344826</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H42" t="n">
-        <v>64.68215049679215</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I42" t="n">
-        <v>72.12879345870398</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J42" t="n">
-        <v>72.12879345870398</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="K42" t="n">
-        <v>72.12879345870398</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="L42" t="n">
-        <v>72.12879345870398</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="M42" t="n">
-        <v>872.5704058565068</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="N42" t="n">
-        <v>1673.01201825431</v>
+        <v>4225.654392279956</v>
       </c>
       <c r="O42" t="n">
-        <v>1673.01201825431</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="P42" t="n">
-        <v>1673.01201825431</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q42" t="n">
-        <v>1873.369781077302</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R42" t="n">
-        <v>1873.369781077302</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S42" t="n">
-        <v>1792.045533638556</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T42" t="n">
-        <v>1650.165597936235</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U42" t="n">
-        <v>1465.397401855871</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V42" t="n">
-        <v>1260.424262995137</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W42" t="n">
-        <v>1063.902885828355</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X42" t="n">
-        <v>900.4255395950178</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y42" t="n">
-        <v>760.7326509483102</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>806.177516428138</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C43" t="n">
-        <v>634.204953307054</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="D43" t="n">
-        <v>634.204953307054</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="E43" t="n">
-        <v>467.9967474599075</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="F43" t="n">
-        <v>374.7353886944056</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="G43" t="n">
-        <v>208.4784189886378</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="H43" t="n">
-        <v>64.68215049679215</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I43" t="n">
-        <v>64.68215049679215</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>122.1734787209502</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>348.7010799267873</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
-        <v>703.3904012212081</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>1094.576196191459</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>1472.067707067495</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>1827.495835747258</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>2118.095047669159</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2198.056564597094</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S43" t="n">
-        <v>2027.921517116229</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T43" t="n">
-        <v>1784.582169342129</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U43" t="n">
-        <v>1504.397720842433</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V43" t="n">
-        <v>1222.686253450462</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W43" t="n">
-        <v>1222.686253450462</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X43" t="n">
-        <v>1222.686253450462</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y43" t="n">
-        <v>996.3434851402037</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1937.769775603291</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C44" t="n">
-        <v>1510.869045616591</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D44" t="n">
-        <v>1213.6516506855</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E44" t="n">
-        <v>787.674710833357</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>362.5505290227573</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>362.5505290227573</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
-        <v>64.68215049679215</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
-        <v>64.68215049679215</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>64.68215049679215</v>
+        <v>207.5440612468791</v>
       </c>
       <c r="K44" t="n">
-        <v>64.68215049679215</v>
+        <v>923.0523692223782</v>
       </c>
       <c r="L44" t="n">
-        <v>715.2263527642958</v>
+        <v>1852.677416841655</v>
       </c>
       <c r="M44" t="n">
-        <v>1515.667965162099</v>
+        <v>2856.963518260713</v>
       </c>
       <c r="N44" t="n">
-        <v>2316.109577559901</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="O44" t="n">
-        <v>3116.551189957705</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P44" t="n">
-        <v>3116.551189957705</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q44" t="n">
-        <v>3116.551189957705</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R44" t="n">
-        <v>3234.107524839607</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>3234.107524839607</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>3013.181953884241</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
-        <v>2754.827044480653</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>2754.827044480653</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W44" t="n">
-        <v>2754.827044480653</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X44" t="n">
-        <v>2343.1070456484</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
-        <v>1937.769775603291</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1992.543385290553</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>1875.037481808058</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>1771.197523323343</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>1666.49558959628</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>1572.849759279184</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>1478.795987496788</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>1425.419894259098</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>1432.86653722101</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>1432.86653722101</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K45" t="n">
-        <v>1432.86653722101</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="L45" t="n">
-        <v>1432.86653722101</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="M45" t="n">
-        <v>2233.308149618812</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N45" t="n">
-        <v>2433.665912441805</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O45" t="n">
-        <v>3234.107524839607</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P45" t="n">
-        <v>3234.107524839607</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q45" t="n">
-        <v>3234.107524839607</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R45" t="n">
-        <v>3234.107524839607</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>3152.783277400862</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>3010.90334169854</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>2826.135145618177</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>2621.162006757443</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>2424.64062959066</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>2261.163283357324</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>2121.470394710616</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>615.9842778589787</v>
+        <v>3513.576815624178</v>
       </c>
       <c r="C46" t="n">
-        <v>444.0117147378946</v>
+        <v>3341.604252503098</v>
       </c>
       <c r="D46" t="n">
-        <v>444.0117147378946</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="E46" t="n">
-        <v>444.0117147378946</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="F46" t="n">
-        <v>444.0117147378946</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="G46" t="n">
-        <v>308.2469872483618</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H46" t="n">
-        <v>164.4507187565162</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I46" t="n">
-        <v>64.68215049679215</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J46" t="n">
-        <v>122.1734787209502</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K46" t="n">
-        <v>348.7010799267873</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L46" t="n">
-        <v>703.3904012212081</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M46" t="n">
-        <v>1094.576196191459</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N46" t="n">
-        <v>1472.067707067495</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O46" t="n">
-        <v>1827.495835747258</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P46" t="n">
-        <v>2118.095047669159</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q46" t="n">
-        <v>2245.09517790992</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R46" t="n">
-        <v>2245.09517790992</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S46" t="n">
-        <v>2074.960130429055</v>
+        <v>4945.000622810562</v>
       </c>
       <c r="T46" t="n">
-        <v>1831.620782654955</v>
+        <v>4701.661275036462</v>
       </c>
       <c r="U46" t="n">
-        <v>1831.620782654955</v>
+        <v>4421.476826536767</v>
       </c>
       <c r="V46" t="n">
-        <v>1549.909315262984</v>
+        <v>4139.765359144795</v>
       </c>
       <c r="W46" t="n">
-        <v>1275.056911435497</v>
+        <v>3864.912955317308</v>
       </c>
       <c r="X46" t="n">
-        <v>1032.493014881302</v>
+        <v>3739.919583934437</v>
       </c>
       <c r="Y46" t="n">
-        <v>806.1502465710444</v>
+        <v>3513.576815624178</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>108.8261593358512</v>
+        <v>498.7615575017792</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>521.2079540533999</v>
       </c>
       <c r="N2" t="n">
-        <v>593.5074359500402</v>
+        <v>521.0563139884141</v>
       </c>
       <c r="O2" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,25 +8057,25 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>506.1759249873014</v>
       </c>
       <c r="L3" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>48.85522789280022</v>
       </c>
       <c r="N3" t="n">
-        <v>176.6411400339854</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>577.9986543204228</v>
+        <v>505.5475323587968</v>
       </c>
       <c r="Q3" t="n">
         <v>491.5808533018869</v>
@@ -8140,7 +8142,7 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
-        <v>380.1908016072373</v>
+        <v>93.31363181978912</v>
       </c>
       <c r="M4" t="n">
         <v>417.7126065281028</v>
@@ -8216,25 +8218,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>298.7878524343791</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150259</v>
+        <v>204.9191049629863</v>
       </c>
       <c r="N5" t="n">
         <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
         <v>35.03264989479647</v>
@@ -8289,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>90.30334755109108</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298237</v>
+        <v>549.9687528290792</v>
       </c>
       <c r="M6" t="n">
         <v>579.3245936279221</v>
@@ -8307,16 +8309,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8392,7 +8394,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>152.9025226039384</v>
+        <v>152.9025226039392</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8456,22 +8458,22 @@
         <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
         <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>571.0335849150666</v>
+        <v>110.3411813754878</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>35.03264989479647</v>
@@ -8529,31 +8531,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279221</v>
+        <v>91.00089423008578</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>455.7096961566977</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>845.9581441093341</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>675.9633363134651</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>845.9178405659263</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>129.1350140843319</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,19 +8768,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
-        <v>684.2374055814312</v>
+        <v>1004.802661823039</v>
       </c>
       <c r="N12" t="n">
-        <v>829.8699094234439</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
@@ -8790,7 +8792,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,28 +8929,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
-        <v>692.8799566205714</v>
+        <v>129.8669649843445</v>
       </c>
       <c r="L14" t="n">
-        <v>846.8389236425252</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>845.9581441093341</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>845.9178405659263</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,7 +9005,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
         <v>22.39923383333334</v>
@@ -9012,13 +9014,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N15" t="n">
-        <v>829.8699094234439</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O15" t="n">
-        <v>684.3125147913254</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
@@ -9027,7 +9029,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
-        <v>758.5002654165255</v>
+        <v>471.8155959159414</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
@@ -9179,7 +9181,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>100.0581876036193</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
         <v>36.12467460459804</v>
@@ -9240,19 +9242,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>507.2052537942219</v>
+        <v>1003.048909524252</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
@@ -9407,19 +9409,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>56.96224792398087</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P20" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>355.5991224937308</v>
       </c>
       <c r="R20" t="n">
         <v>35.03264989479647</v>
@@ -9483,19 +9485,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1004.802661823039</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>26.37892716579976</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
@@ -9653,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>466.324307620685</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9723,19 +9725,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
         <v>23.67291939414415</v>
@@ -9960,10 +9962,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N27" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
@@ -10112,7 +10114,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
-        <v>471.8155959159414</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
@@ -10127,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10361,10 +10363,10 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>723.1315272622221</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
@@ -10434,10 +10436,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N33" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10601,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>100.0581876036175</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>121.8329647736533</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
         <v>20.61111433333334</v>
@@ -10671,13 +10673,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N36" t="n">
         <v>1121.661155963915</v>
       </c>
       <c r="O36" t="n">
-        <v>742.2891030007354</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
@@ -10820,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
         <v>977.3272420480539</v>
@@ -10832,10 +10834,10 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>763.430074865614</v>
       </c>
       <c r="O38" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P38" t="n">
         <v>753.0089771212694</v>
@@ -10844,7 +10846,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>129.1350140843301</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,31 +10898,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N39" t="n">
-        <v>21.34302821354166</v>
+        <v>424.3574658298753</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>418.6332501171365</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
         <v>106.5207073584907</v>
@@ -11057,25 +11059,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>232.1875530809918</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>846.8389236425247</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>845.9581441093336</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>845.8065040443479</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>493.0472488628404</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
@@ -11133,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
         <v>20.61111433333334</v>
@@ -11145,19 +11147,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>831.6236617222298</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>829.8699094234435</v>
+        <v>949.834293434791</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>225.1286168980616</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>135.7243512442234</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>695.4273982583842</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>845.9581441093336</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>845.8065040443479</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>845.9178405659259</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
         <v>153.7764225027789</v>
@@ -11373,31 +11375,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>292.2790261091175</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>831.6236617222298</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>223.7246068226248</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>831.698770932124</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23264,13 +23266,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.7171704536211</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924938</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864459</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23321,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>180.8038271401336</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>134.0471675772201</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>108.1431374666144</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
         <v>277.3826040146988</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486148</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23510,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407056</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095519</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>135.3387372424182</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>116.1691101319039</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,16 +23712,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>80.02537169597471</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.894118982404</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23938,25 +23940,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>53.3281253757179</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24139,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>55.72359956779867</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,19 +24183,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>173.7227752382844</v>
       </c>
     </row>
     <row r="23">
@@ -24367,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24412,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>167.3580458360707</v>
+        <v>7.383900168702553</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>3.579618755105685</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,19 +24654,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>203.8814937157039</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
@@ -24892,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>112.9606863843807</v>
+        <v>110.0981677402064</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>55.69401775693336</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>189.5437509797599</v>
       </c>
     </row>
     <row r="35">
@@ -25318,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>233.6730970436894</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>260.824680873792</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25439,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>8.668621376273222e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25546,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.8370372785616</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25594,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25628,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>152.2422801891061</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25643,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25676,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25786,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>77.81441130533833</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>19.29091348988663</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25846,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25862,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>124.8144736250693</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25922,10 +25924,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26020,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -26035,7 +26037,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>30.18731979407266</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26077,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>116.3948199196098</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>596433.8507942111</v>
+        <v>592718.7914454637</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>448977.7761740435</v>
+        <v>605509.4499704952</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>448977.7761740436</v>
+        <v>605509.4499704953</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>605509.4499704951</v>
+        <v>605509.4499704953</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>605509.4499704952</v>
+        <v>605509.4499704951</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>605509.4499704952</v>
+        <v>605509.4499704951</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>605509.4499704953</v>
+        <v>605509.4499704952</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>605509.4499704952</v>
+        <v>605509.4499704953</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>605509.4499704953</v>
+        <v>605509.4499704952</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>448977.7761740435</v>
+        <v>605509.4499704952</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>448977.7761740434</v>
+        <v>605509.4499704953</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>465954.1344089304</v>
       </c>
       <c r="C2" t="n">
-        <v>465954.1344089306</v>
+        <v>465954.1344089303</v>
       </c>
       <c r="D2" t="n">
         <v>465954.1344089304</v>
       </c>
       <c r="E2" t="n">
-        <v>333410.0096021966</v>
+        <v>449624.3225099581</v>
       </c>
       <c r="F2" t="n">
-        <v>333410.0096021967</v>
+        <v>449624.3225099581</v>
       </c>
       <c r="G2" t="n">
-        <v>449624.3225099578</v>
+        <v>449624.3225099575</v>
       </c>
       <c r="H2" t="n">
         <v>449624.3225099579</v>
       </c>
       <c r="I2" t="n">
+        <v>449624.3225099579</v>
+      </c>
+      <c r="J2" t="n">
         <v>449624.322509958</v>
-      </c>
-      <c r="J2" t="n">
-        <v>449624.3225099581</v>
       </c>
       <c r="K2" t="n">
         <v>449624.3225099579</v>
       </c>
       <c r="L2" t="n">
-        <v>449624.3225099579</v>
+        <v>449624.3225099581</v>
       </c>
       <c r="M2" t="n">
-        <v>449624.3225099578</v>
+        <v>449624.322509958</v>
       </c>
       <c r="N2" t="n">
         <v>449624.3225099578</v>
       </c>
       <c r="O2" t="n">
-        <v>333410.0096021966</v>
+        <v>449624.3225099579</v>
       </c>
       <c r="P2" t="n">
-        <v>333410.0096021967</v>
+        <v>449624.3225099578</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>186404.7334147372</v>
+        <v>162124.6960695912</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361219</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>75330.9511534623</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>128890.3998115404</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>145533.6699348165</v>
+        <v>126577.2685802888</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701977</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62873.93696537385</v>
+        <v>180063.8714551677</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>195487.3209125818</v>
+      </c>
+      <c r="C4" t="n">
         <v>182621.065515899</v>
-      </c>
-      <c r="C4" t="n">
-        <v>182621.0655158991</v>
       </c>
       <c r="D4" t="n">
         <v>182621.0655158991</v>
       </c>
       <c r="E4" t="n">
-        <v>53631.12390475629</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="F4" t="n">
-        <v>53631.1239047563</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="G4" t="n">
         <v>72380.62724986367</v>
       </c>
       <c r="H4" t="n">
-        <v>72380.62724986368</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="I4" t="n">
+        <v>72380.62724986373</v>
+      </c>
+      <c r="J4" t="n">
+        <v>72380.62724986365</v>
+      </c>
+      <c r="K4" t="n">
+        <v>72380.62724986367</v>
+      </c>
+      <c r="L4" t="n">
         <v>72380.62724986371</v>
       </c>
-      <c r="J4" t="n">
+      <c r="M4" t="n">
+        <v>72380.62724986365</v>
+      </c>
+      <c r="N4" t="n">
+        <v>72380.62724986367</v>
+      </c>
+      <c r="O4" t="n">
+        <v>72380.62724986371</v>
+      </c>
+      <c r="P4" t="n">
         <v>72380.62724986373</v>
-      </c>
-      <c r="K4" t="n">
-        <v>72380.62724986373</v>
-      </c>
-      <c r="L4" t="n">
-        <v>72380.62724986373</v>
-      </c>
-      <c r="M4" t="n">
-        <v>72380.6272498637</v>
-      </c>
-      <c r="N4" t="n">
-        <v>72380.6272498637</v>
-      </c>
-      <c r="O4" t="n">
-        <v>53631.12390475634</v>
-      </c>
-      <c r="P4" t="n">
-        <v>53631.12390475633</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.25103742813</v>
+        <v>63041.22282216126</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26476,10 +26478,10 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>49158.43437756206</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>49158.43437756206</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26500,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>49158.43437756203</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>49158.43437756203</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29482.08444086599</v>
+        <v>45300.89460459613</v>
       </c>
       <c r="C6" t="n">
-        <v>215886.8178556034</v>
+        <v>192479.984181991</v>
       </c>
       <c r="D6" t="n">
         <v>215886.8178556032</v>
       </c>
       <c r="E6" t="n">
-        <v>155289.5001664159</v>
+        <v>83754.27651502407</v>
       </c>
       <c r="F6" t="n">
-        <v>230620.4513198784</v>
+        <v>299493.6330716647</v>
       </c>
       <c r="G6" t="n">
-        <v>170603.233260124</v>
+        <v>299493.6330716642</v>
       </c>
       <c r="H6" t="n">
         <v>299493.6330716645</v>
       </c>
       <c r="I6" t="n">
-        <v>299493.6330716646</v>
+        <v>299493.6330716645</v>
       </c>
       <c r="J6" t="n">
-        <v>153959.9631368481</v>
+        <v>172916.3644913759</v>
       </c>
       <c r="K6" t="n">
+        <v>280847.0327146449</v>
+      </c>
+      <c r="L6" t="n">
+        <v>299493.6330716647</v>
+      </c>
+      <c r="M6" t="n">
+        <v>119429.761616497</v>
+      </c>
+      <c r="N6" t="n">
+        <v>299493.6330716644</v>
+      </c>
+      <c r="O6" t="n">
         <v>299493.6330716645</v>
       </c>
-      <c r="L6" t="n">
-        <v>299493.6330716645</v>
-      </c>
-      <c r="M6" t="n">
-        <v>236619.6961062906</v>
-      </c>
-      <c r="N6" t="n">
-        <v>299493.6330716645</v>
-      </c>
-      <c r="O6" t="n">
-        <v>230620.4513198783</v>
-      </c>
       <c r="P6" t="n">
-        <v>230620.4513198784</v>
+        <v>299493.6330716644</v>
       </c>
     </row>
   </sheetData>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539681</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26796,10 +26798,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>808.5268812099023</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>808.5268812099023</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26820,16 +26822,16 @@
         <v>1278.783917572857</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>808.5268812099018</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>808.5268812099018</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539681</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162603</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>252.2990680943081</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>470.2570363629545</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539681</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162603</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943076</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539681</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162603</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943081</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>470.2570363629545</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27388,13 +27390,13 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>382.3342483833847</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -27433,13 +27435,13 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>198.7036757366573</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>59.33003921451012</v>
       </c>
       <c r="C4" t="n">
-        <v>54.79134335712841</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
@@ -27549,13 +27551,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27597,7 +27599,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
@@ -27667,22 +27669,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>203.7690970142255</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>194.7386628029776</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,19 +27782,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>68.15019490184558</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,10 +27833,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>58.31608596298801</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>341.1456313534021</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>196.1965332168826</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
@@ -27916,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>161.8765877394558</v>
+        <v>125.8389504673953</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28029,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28074,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28272,7 +28274,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-2.157684789459571e-12</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28576,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28627,7 +28629,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>-1.307398633798584e-12</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28752,7 +28754,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>-9.30691416654334e-13</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28810,7 +28812,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -28819,7 +28821,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-8.038590482916834e-13</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28992,7 +28994,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>3.016490760880212e-12</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29703,7 +29705,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>-2.555803160098856e-12</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -30052,7 +30054,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>-8.878873722601852e-13</v>
       </c>
     </row>
     <row r="36">
@@ -30220,7 +30222,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-8.360392837795219e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30703,7 +30705,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -30855,7 +30857,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>3.205021433435225e-12</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>73.06155854104185</v>
+        <v>462.9969567069699</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>483.7766911539681</v>
       </c>
       <c r="N2" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539681</v>
       </c>
       <c r="O2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34777,25 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>483.7766911539681</v>
       </c>
       <c r="L3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>25.75844738047224</v>
       </c>
       <c r="N3" t="n">
-        <v>155.2981118204437</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539681</v>
       </c>
       <c r="Q3" t="n">
         <v>468.8338150129084</v>
@@ -34860,7 +34862,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
-        <v>358.2720417115361</v>
+        <v>71.39487192408791</v>
       </c>
       <c r="M4" t="n">
         <v>395.137166636617</v>
@@ -34936,25 +34938,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>263.0232516395698</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>556.2278131155941</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="N5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35009,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>67.90411371775774</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>556.2278131155941</v>
+        <v>527.4536661148496</v>
       </c>
       <c r="M6" t="n">
         <v>556.2278131155941</v>
@@ -35027,16 +35029,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35112,7 +35114,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391542</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35176,22 +35178,22 @@
         <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>533.7539620806206</v>
+        <v>73.06155854104179</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M9" t="n">
+        <v>67.9041137177578</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="O9" t="n">
-        <v>432.5378064344755</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>808.5268812099023</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>638.683713479019</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>808.5268812099023</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>94.10236418953542</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
-        <v>661.1406250691032</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="N12" t="n">
-        <v>808.5268812099023</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35510,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35568,7 +35570,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K13" t="n">
-        <v>228.8157587937728</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L13" t="n">
         <v>358.2720417115361</v>
@@ -35647,28 +35649,28 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>657.1153558257621</v>
+        <v>94.10236418953517</v>
       </c>
       <c r="L14" t="n">
-        <v>808.5268812099023</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>808.5268812099023</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>808.5268812099023</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35732,13 +35734,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N15" t="n">
-        <v>808.5268812099023</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O15" t="n">
-        <v>661.1406250691032</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35747,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35817,7 +35819,7 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O16" t="n">
-        <v>359.0183117977383</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P16" t="n">
         <v>293.5345574968697</v>
@@ -35881,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>722.7356646217162</v>
+        <v>436.0509951211321</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
@@ -35899,7 +35901,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>62.48282579338804</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35960,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>485.8622255806802</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36048,7 +36050,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M19" t="n">
-        <v>395.1371666366161</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N19" t="n">
         <v>381.3045564404402</v>
@@ -36127,19 +36129,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>19.53098502454905</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>319.4744478891327</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36203,19 +36205,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>981.7058813107108</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>3.207037443577533</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36288,7 +36290,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N22" t="n">
-        <v>381.3045564404402</v>
+        <v>381.3045564404432</v>
       </c>
       <c r="O22" t="n">
         <v>359.0183117977405</v>
@@ -36373,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>428.7489458104537</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,19 +36445,19 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36680,10 +36682,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N27" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36832,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>436.0509951211321</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
@@ -36847,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36999,7 +37001,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N31" t="n">
-        <v>381.3045564404402</v>
+        <v>381.3045564404364</v>
       </c>
       <c r="O31" t="n">
         <v>359.0183117977405</v>
@@ -37081,10 +37083,10 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>685.740567906198</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37154,10 +37156,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N33" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37321,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>62.4828257933862</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>86.80031487885682</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37391,13 +37393,13 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N36" t="n">
         <v>1100.318127750374</v>
       </c>
       <c r="O36" t="n">
-        <v>719.1172132785132</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37540,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
         <v>939.015199615431</v>
@@ -37552,10 +37554,10 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>726.1504520311679</v>
       </c>
       <c r="O38" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>715.433615311038</v>
@@ -37564,7 +37566,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>94.10236418953359</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>403.0144376163336</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>396.8624089123078</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>82.84778796434657</v>
@@ -37777,25 +37779,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>196.4229522861825</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>808.5268812099018</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>808.5268812099018</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>808.5268812099018</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>455.4718870526091</v>
       </c>
       <c r="Q41" t="n">
         <v>460.6924035395789</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37865,19 +37867,19 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>808.5268812099018</v>
+        <v>928.4912652212494</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>202.3815786090831</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>106.3043917586369</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>657.1153558257613</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>808.5268812099018</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>808.5268812099018</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
         <v>118.7437726079824</v>
@@ -38093,31 +38095,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>202.3815786090831</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1817928.646885345</v>
+        <v>1817231.985680253</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114756</v>
+        <v>612367.9462114747</v>
       </c>
     </row>
     <row r="9">
@@ -670,10 +670,10 @@
         <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>38.53869160910906</v>
+        <v>381.3005496985039</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>128.9342698104349</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>152.6093644905705</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
@@ -898,7 +898,7 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>14.94721823158767</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>127.4551843441467</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>101.9929615813396</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>257.4638774372665</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
         <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>22.51978202893052</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>395.934504868843</v>
       </c>
       <c r="Y8" t="n">
         <v>1.283897344658556</v>
@@ -1296,13 +1296,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>38.70717332127965</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
@@ -1311,7 +1311,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>40.45520059978303</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486159</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1387,7 +1387,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407063</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>60.29055953944207</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>181.5044108289293</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1596,7 +1596,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1666,13 +1666,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250137</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439315</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1767,7 +1767,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
@@ -1782,7 +1782,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>26.18919567502327</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>252.1851532117792</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486159</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -1909,7 +1909,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439315</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -2007,22 +2007,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.1055716303386</v>
+        <v>96.44420510686788</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2092,7 +2092,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924947</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>400.2956717864458</v>
@@ -2244,7 +2244,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2301,13 +2301,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>50.35656538887095</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2481,7 +2481,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
@@ -2490,7 +2490,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
@@ -2526,22 +2526,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>269.9987038459962</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>105.2198536997995</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>184.6846902698393</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087139</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>101.9929615813393</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2775,10 +2775,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2955,13 +2955,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>167.2844362744924</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3249,13 +3249,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>203.953684887366</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>34.53558964739547</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486159</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
@@ -3319,7 +3319,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T35" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458133</v>
       </c>
       <c r="U35" t="n">
         <v>255.7713603095518</v>
@@ -3334,7 +3334,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446598</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -3429,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
@@ -3483,10 +3483,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>11.27919891542012</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486156</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
@@ -3523,7 +3523,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3666,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3900,7 +3900,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>123.0673923170405</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3985,7 +3985,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453622</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T44" t="n">
         <v>218.7163152458132</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898699</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>96.4442051068671</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4200,7 +4200,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>123.7434376690431</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>843.8866260837963</v>
+        <v>786.070321123589</v>
       </c>
       <c r="C2" t="n">
-        <v>821.0263001375005</v>
+        <v>763.2099951772932</v>
       </c>
       <c r="D2" t="n">
-        <v>801.7740833629048</v>
+        <v>743.9577784026975</v>
       </c>
       <c r="E2" t="n">
-        <v>779.8375475511664</v>
+        <v>722.0212425909591</v>
       </c>
       <c r="F2" t="n">
-        <v>740.909576228834</v>
+        <v>336.86917218843</v>
       </c>
       <c r="G2" t="n">
         <v>336.5705138182826</v>
       </c>
       <c r="H2" t="n">
-        <v>38.70213529231745</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231745</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J2" t="n">
         <v>401.305594109213</v>
       </c>
       <c r="K2" t="n">
-        <v>859.6725812491131</v>
+        <v>880.2445183516411</v>
       </c>
       <c r="L2" t="n">
-        <v>859.6725812491131</v>
+        <v>882.5260259873576</v>
       </c>
       <c r="M2" t="n">
-        <v>1338.611505491541</v>
+        <v>882.5260259873576</v>
       </c>
       <c r="N2" t="n">
-        <v>1817.55042973397</v>
+        <v>882.5260259873576</v>
       </c>
       <c r="O2" t="n">
-        <v>1817.55042973397</v>
+        <v>1361.464950229786</v>
       </c>
       <c r="P2" t="n">
-        <v>1817.55042973397</v>
+        <v>1361.464950229786</v>
       </c>
       <c r="Q2" t="n">
-        <v>1817.55042973397</v>
+        <v>1817.550429733969</v>
       </c>
       <c r="R2" t="n">
-        <v>1935.106764615872</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S2" t="n">
-        <v>1935.106764615872</v>
+        <v>1830.739470489012</v>
       </c>
       <c r="T2" t="n">
-        <v>1935.106764615872</v>
+        <v>1830.739470489012</v>
       </c>
       <c r="U2" t="n">
-        <v>1676.751855212285</v>
+        <v>1572.384561085424</v>
       </c>
       <c r="V2" t="n">
-        <v>1676.751855212285</v>
+        <v>1214.895146211673</v>
       </c>
       <c r="W2" t="n">
-        <v>1676.751855212285</v>
+        <v>1214.895146211673</v>
       </c>
       <c r="X2" t="n">
-        <v>1265.031856380032</v>
+        <v>803.1751473794207</v>
       </c>
       <c r="Y2" t="n">
-        <v>859.6945863349223</v>
+        <v>801.878281374715</v>
       </c>
     </row>
     <row r="3">
@@ -4391,46 +4391,46 @@
         <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>384.4797643565625</v>
+        <v>384.4797643565624</v>
       </c>
       <c r="E3" t="n">
-        <v>279.7778306294997</v>
+        <v>279.7778306294996</v>
       </c>
       <c r="F3" t="n">
-        <v>186.1320003124039</v>
+        <v>186.1320003124038</v>
       </c>
       <c r="G3" t="n">
-        <v>92.07822853000786</v>
+        <v>92.07822853000783</v>
       </c>
       <c r="H3" t="n">
-        <v>38.70213529231745</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="I3" t="n">
-        <v>46.14877825422929</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J3" t="n">
-        <v>317.8462675338204</v>
+        <v>310.3996245719085</v>
       </c>
       <c r="K3" t="n">
-        <v>796.7851917762488</v>
+        <v>425.3664405251916</v>
       </c>
       <c r="L3" t="n">
-        <v>796.7851917762488</v>
+        <v>904.3053647676197</v>
       </c>
       <c r="M3" t="n">
-        <v>822.2860546829163</v>
+        <v>1383.244289010048</v>
       </c>
       <c r="N3" t="n">
-        <v>822.2860546829163</v>
+        <v>1383.244289010048</v>
       </c>
       <c r="O3" t="n">
-        <v>822.2860546829163</v>
+        <v>1383.244289010048</v>
       </c>
       <c r="P3" t="n">
-        <v>1301.224978925345</v>
+        <v>1383.244289010048</v>
       </c>
       <c r="Q3" t="n">
-        <v>1765.370455788124</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="R3" t="n">
         <v>1847.389765872827</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38.70213529231745</v>
+        <v>1121.883257816554</v>
       </c>
       <c r="C4" t="n">
-        <v>38.70213529231745</v>
+        <v>949.9106946954703</v>
       </c>
       <c r="D4" t="n">
-        <v>38.70213529231745</v>
+        <v>786.593921822241</v>
       </c>
       <c r="E4" t="n">
-        <v>38.70213529231745</v>
+        <v>620.3857159750945</v>
       </c>
       <c r="F4" t="n">
-        <v>38.70213529231745</v>
+        <v>448.523941749655</v>
       </c>
       <c r="G4" t="n">
-        <v>38.70213529231745</v>
+        <v>282.2669720438871</v>
       </c>
       <c r="H4" t="n">
-        <v>38.70213529231745</v>
+        <v>138.4707035520415</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231745</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J4" t="n">
-        <v>96.19346351647548</v>
+        <v>96.19346351647545</v>
       </c>
       <c r="K4" t="n">
-        <v>322.7210647223127</v>
+        <v>322.7210647223126</v>
       </c>
       <c r="L4" t="n">
-        <v>393.4019879271597</v>
+        <v>677.4103860167334</v>
       </c>
       <c r="M4" t="n">
-        <v>784.5877828974105</v>
+        <v>1068.596180986984</v>
       </c>
       <c r="N4" t="n">
-        <v>1162.079293773446</v>
+        <v>1446.08769186302</v>
       </c>
       <c r="O4" t="n">
-        <v>1517.50742245321</v>
+        <v>1801.515820542783</v>
       </c>
       <c r="P4" t="n">
-        <v>1808.10663437511</v>
+        <v>1808.106634375109</v>
       </c>
       <c r="Q4" t="n">
-        <v>1935.106764615872</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R4" t="n">
-        <v>1888.068151303046</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S4" t="n">
-        <v>1717.933103822181</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="T4" t="n">
-        <v>1474.593756048081</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="U4" t="n">
-        <v>1194.409307548385</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="V4" t="n">
-        <v>912.6978401564138</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="W4" t="n">
-        <v>637.8454363289268</v>
+        <v>1780.955891393073</v>
       </c>
       <c r="X4" t="n">
-        <v>395.2815397747319</v>
+        <v>1538.391994838878</v>
       </c>
       <c r="Y4" t="n">
-        <v>168.9387714644739</v>
+        <v>1312.04922652862</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2185.028631180769</v>
+        <v>1746.091355883837</v>
       </c>
       <c r="C5" t="n">
-        <v>1758.12790119407</v>
+        <v>1723.231029937541</v>
       </c>
       <c r="D5" t="n">
-        <v>1334.83528037907</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="E5" t="n">
-        <v>908.8583405269275</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F5" t="n">
-        <v>483.7341587163277</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
@@ -4570,49 +4570,49 @@
         <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
         <v>957.7672188505812</v>
       </c>
       <c r="M5" t="n">
-        <v>1123.5801824935</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="N5" t="n">
-        <v>1674.245717477938</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="O5" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P5" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2209.81305222845</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>2209.81305222845</v>
+        <v>1770.875776931517</v>
       </c>
       <c r="V5" t="n">
-        <v>2209.81305222845</v>
+        <v>1770.875776931517</v>
       </c>
       <c r="W5" t="n">
-        <v>2209.81305222845</v>
+        <v>1770.875776931517</v>
       </c>
       <c r="X5" t="n">
-        <v>2202.133457436601</v>
+        <v>1763.196182139668</v>
       </c>
       <c r="Y5" t="n">
-        <v>2200.836591431896</v>
+        <v>1761.899316134963</v>
       </c>
     </row>
     <row r="6">
@@ -4643,13 +4643,13 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L6" t="n">
         <v>838.3748437825398</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>485.750951392604</v>
+        <v>983.8830790816388</v>
       </c>
       <c r="C7" t="n">
-        <v>313.77838827152</v>
+        <v>811.9105159605548</v>
       </c>
       <c r="D7" t="n">
-        <v>313.77838827152</v>
+        <v>648.5937430873255</v>
       </c>
       <c r="E7" t="n">
-        <v>313.77838827152</v>
+        <v>482.385537240179</v>
       </c>
       <c r="F7" t="n">
-        <v>210.7551947550154</v>
+        <v>310.5237630147394</v>
       </c>
       <c r="G7" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H7" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="T7" t="n">
-        <v>1981.571904688276</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="U7" t="n">
-        <v>1701.387456188581</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="V7" t="n">
-        <v>1419.67598879661</v>
+        <v>1917.808116485644</v>
       </c>
       <c r="W7" t="n">
-        <v>1144.823584969123</v>
+        <v>1642.955712658157</v>
       </c>
       <c r="X7" t="n">
-        <v>902.2596884149276</v>
+        <v>1400.391816103962</v>
       </c>
       <c r="Y7" t="n">
-        <v>675.9169201046697</v>
+        <v>1174.049047793704</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1376.947823099961</v>
+        <v>866.7353935451185</v>
       </c>
       <c r="C8" t="n">
-        <v>950.0470931132616</v>
+        <v>843.8750675988227</v>
       </c>
       <c r="D8" t="n">
-        <v>526.7544722982618</v>
+        <v>824.622850824227</v>
       </c>
       <c r="E8" t="n">
-        <v>504.8179364865234</v>
+        <v>802.6863150124886</v>
       </c>
       <c r="F8" t="n">
-        <v>79.69375467592363</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G8" t="n">
-        <v>79.39509630577632</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H8" t="n">
         <v>79.39509630577632</v>
@@ -4807,22 +4807,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L8" t="n">
         <v>595.1637600336857</v>
       </c>
       <c r="M8" t="n">
-        <v>1145.829295018124</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="N8" t="n">
-        <v>1218.160237973755</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O8" t="n">
-        <v>1768.825772958194</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P8" t="n">
-        <v>1768.825772958194</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q8" t="n">
         <v>2224.911252462377</v>
@@ -4831,25 +4831,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2202.163997887699</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>2202.163997887699</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V8" t="n">
-        <v>2202.163997887699</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W8" t="n">
-        <v>1805.772648188046</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="X8" t="n">
-        <v>1798.093053396197</v>
+        <v>883.8402198009502</v>
       </c>
       <c r="Y8" t="n">
-        <v>1796.796187391491</v>
+        <v>882.5433537962446</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>51.94486801115937</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>51.94486801115937</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L9" t="n">
-        <v>602.6104029955975</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M9" t="n">
-        <v>669.8354755761777</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N9" t="n">
-        <v>669.8354755761777</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O9" t="n">
-        <v>1220.501010560616</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P9" t="n">
-        <v>1771.166545545054</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q9" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>737.4839554633641</v>
+        <v>789.6093675008983</v>
       </c>
       <c r="C10" t="n">
-        <v>565.51139234228</v>
+        <v>617.6368043798143</v>
       </c>
       <c r="D10" t="n">
-        <v>565.51139234228</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="E10" t="n">
-        <v>526.4132374723006</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="F10" t="n">
-        <v>354.551463246861</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>188.2944935410931</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4995,19 +4995,19 @@
         <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>1484.213795394888</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="V10" t="n">
-        <v>1202.502328002917</v>
+        <v>1723.534404904904</v>
       </c>
       <c r="W10" t="n">
-        <v>927.6499241754298</v>
+        <v>1448.682001077417</v>
       </c>
       <c r="X10" t="n">
-        <v>927.6499241754298</v>
+        <v>1206.118104523222</v>
       </c>
       <c r="Y10" t="n">
-        <v>927.6499241754298</v>
+        <v>979.775336212964</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
         <v>137.1995846623573</v>
@@ -5041,28 +5041,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>2036.213862444163</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N11" t="n">
-        <v>3012.464920930865</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O11" t="n">
-        <v>3857.609571081677</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P11" t="n">
-        <v>4565.888850239604</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q11" t="n">
-        <v>5021.974329743787</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R11" t="n">
         <v>5115.135670291427</v>
@@ -5117,28 +5117,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J12" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K12" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L12" t="n">
-        <v>939.1015214887346</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="M12" t="n">
-        <v>1910.990343986338</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="N12" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O12" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P12" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q12" t="n">
         <v>1910.990343986338</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4017.903765402536</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C13" t="n">
-        <v>3845.931202281452</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D13" t="n">
-        <v>3682.614429408222</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E13" t="n">
-        <v>3516.406223561076</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F13" t="n">
-        <v>3344.544449335636</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G13" t="n">
-        <v>3178.287479629868</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H13" t="n">
-        <v>3034.491211138023</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I13" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578199</v>
       </c>
       <c r="Q13" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="R13" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="S13" t="n">
-        <v>5007.197501888255</v>
+        <v>2112.580693338095</v>
       </c>
       <c r="T13" t="n">
-        <v>5007.197501888255</v>
+        <v>1929.242904622005</v>
       </c>
       <c r="U13" t="n">
-        <v>5007.197501888255</v>
+        <v>1929.242904622005</v>
       </c>
       <c r="V13" t="n">
-        <v>4725.486034496284</v>
+        <v>1929.242904622005</v>
       </c>
       <c r="W13" t="n">
-        <v>4450.633630668796</v>
+        <v>1654.390500794518</v>
       </c>
       <c r="X13" t="n">
-        <v>4208.069734114601</v>
+        <v>1411.826604240323</v>
       </c>
       <c r="Y13" t="n">
-        <v>4208.069734114601</v>
+        <v>1185.483835930065</v>
       </c>
     </row>
     <row r="14">
@@ -5278,28 +5278,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>195.4640539534684</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1125.089101572745</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2129.375202991803</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N14" t="n">
-        <v>3105.626261478504</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O14" t="n">
-        <v>3950.770911629316</v>
+        <v>3959.47027938737</v>
       </c>
       <c r="P14" t="n">
-        <v>4659.050190787244</v>
+        <v>4667.749558545297</v>
       </c>
       <c r="Q14" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R14" t="n">
         <v>5115.135670291427</v>
@@ -5314,10 +5314,10 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
         <v>3365.887132399955</v>
@@ -5354,19 +5354,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K15" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L15" t="n">
-        <v>102.3027134058285</v>
+        <v>1537.033091018986</v>
       </c>
       <c r="M15" t="n">
-        <v>821.6753975134684</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N15" t="n">
         <v>1910.990343986338</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>896.1687373222098</v>
+        <v>1041.68756743822</v>
       </c>
       <c r="C16" t="n">
-        <v>896.1687373222098</v>
+        <v>869.7150043171358</v>
       </c>
       <c r="D16" t="n">
-        <v>732.8519644489805</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="E16" t="n">
-        <v>566.6437586018341</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F16" t="n">
-        <v>394.7819843763945</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G16" t="n">
-        <v>228.5250146706266</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H16" t="n">
         <v>202.0712816655526</v>
@@ -5460,28 +5460,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S16" t="n">
-        <v>2112.580693338092</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T16" t="n">
-        <v>1869.241345563992</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="U16" t="n">
-        <v>1869.241345563992</v>
+        <v>1955.492679006434</v>
       </c>
       <c r="V16" t="n">
-        <v>1587.529878172021</v>
+        <v>1700.760201014738</v>
       </c>
       <c r="W16" t="n">
-        <v>1312.677474344533</v>
+        <v>1700.760201014738</v>
       </c>
       <c r="X16" t="n">
-        <v>1312.677474344533</v>
+        <v>1458.196304460543</v>
       </c>
       <c r="Y16" t="n">
-        <v>1086.334706034276</v>
+        <v>1231.853536150285</v>
       </c>
     </row>
     <row r="17">
@@ -5515,25 +5515,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>533.9931985757493</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1463.618246195026</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2467.904347614084</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N17" t="n">
-        <v>3444.155406100785</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>4289.300056251597</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
         <v>4997.579335409525</v>
@@ -5557,10 +5557,10 @@
         <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>939.1015214887346</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M18" t="n">
-        <v>939.1015214887346</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1688.129489254169</v>
       </c>
       <c r="Q18" t="n">
         <v>1910.990343986338</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5685,40 +5685,40 @@
         <v>1132.196759100495</v>
       </c>
       <c r="N19" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976535</v>
       </c>
       <c r="O19" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656298</v>
       </c>
       <c r="P19" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578199</v>
       </c>
       <c r="Q19" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="S19" t="n">
-        <v>2119.408873334071</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T19" t="n">
-        <v>2119.408873334071</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U19" t="n">
-        <v>2119.408873334071</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V19" t="n">
-        <v>2119.408873334071</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
@@ -5761,19 +5761,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4090.576687723259</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4798.855966881186</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5788,16 +5788,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5828,25 +5828,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M21" t="n">
-        <v>102.3027134058285</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N21" t="n">
-        <v>1191.617659878699</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O21" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P21" t="n">
         <v>1910.990343986338</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1019.275630082919</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C22" t="n">
-        <v>847.303066961835</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D22" t="n">
-        <v>683.9862940886057</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E22" t="n">
-        <v>683.9862940886057</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="F22" t="n">
-        <v>512.1245198631661</v>
+        <v>199.7211024026608</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5922,40 +5922,40 @@
         <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>1509.688269976534</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>1865.116398656297</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>2155.715610578198</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>2282.71574081896</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.677127506133</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025268</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251168</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751472</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359501</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W22" t="n">
-        <v>1260.306816359501</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X22" t="n">
-        <v>1260.306816359501</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y22" t="n">
-        <v>1209.441598794985</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6065,28 +6065,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="M24" t="n">
-        <v>102.3027134058285</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N24" t="n">
-        <v>102.3027134058285</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O24" t="n">
-        <v>730.647150085061</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P24" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q24" t="n">
         <v>1910.990343986338</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1022.167063056836</v>
+        <v>1019.226866224298</v>
       </c>
       <c r="C25" t="n">
-        <v>850.1944999357522</v>
+        <v>847.2543031032136</v>
       </c>
       <c r="D25" t="n">
-        <v>850.1944999357522</v>
+        <v>683.9375302299843</v>
       </c>
       <c r="E25" t="n">
-        <v>683.9862940886057</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="F25" t="n">
-        <v>512.1245198631661</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G25" t="n">
         <v>345.8675501573982</v>
@@ -6174,25 +6174,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2235.67712750613</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>2235.67712750613</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U25" t="n">
-        <v>1962.951164025326</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V25" t="n">
-        <v>1681.239696633355</v>
+        <v>1435.735603246621</v>
       </c>
       <c r="W25" t="n">
-        <v>1681.239696633355</v>
+        <v>1435.735603246621</v>
       </c>
       <c r="X25" t="n">
-        <v>1438.67580007916</v>
+        <v>1435.735603246621</v>
       </c>
       <c r="Y25" t="n">
-        <v>1212.333031768902</v>
+        <v>1209.392834936363</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6302,31 +6302,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>847.4138558574832</v>
+        <v>440.5322462326804</v>
       </c>
       <c r="C28" t="n">
-        <v>675.4412927363992</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="D28" t="n">
-        <v>512.1245198631699</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="E28" t="n">
-        <v>512.1245198631699</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="F28" t="n">
-        <v>512.1245198631699</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G28" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6408,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2179.692547302453</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>1936.353199528353</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>1656.168751028657</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359498</v>
+        <v>1374.457283636686</v>
       </c>
       <c r="W28" t="n">
-        <v>1260.306816359498</v>
+        <v>1099.604879809199</v>
       </c>
       <c r="X28" t="n">
-        <v>1260.306816359498</v>
+        <v>857.040983255004</v>
       </c>
       <c r="Y28" t="n">
-        <v>1033.96404804924</v>
+        <v>630.698214944746</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6551,16 +6551,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q30" t="n">
         <v>1910.990343986338</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>437.5920494001418</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>265.6194862790578</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
         <v>102.3027134058285</v>
@@ -6633,40 +6633,40 @@
         <v>1132.196759100495</v>
       </c>
       <c r="N31" t="n">
-        <v>1509.688269976527</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O31" t="n">
-        <v>1865.116398656291</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P31" t="n">
-        <v>2155.715610578191</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>2282.715740818953</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.677127506126</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025261</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251161</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>1653.228554196118</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1371.517086804147</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>1096.66468297666</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>854.1007864224655</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>627.7580181122075</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6782,19 +6782,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P33" t="n">
         <v>1910.990343986338</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>517.8401132784822</v>
+        <v>612.3940204581201</v>
       </c>
       <c r="C34" t="n">
-        <v>345.8675501573982</v>
+        <v>440.421457337036</v>
       </c>
       <c r="D34" t="n">
-        <v>345.8675501573982</v>
+        <v>440.421457337036</v>
       </c>
       <c r="E34" t="n">
-        <v>345.8675501573982</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F34" t="n">
-        <v>345.8675501573982</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.306816359498</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W34" t="n">
-        <v>985.454412532011</v>
+        <v>1271.466654034638</v>
       </c>
       <c r="X34" t="n">
-        <v>742.8905159778161</v>
+        <v>1028.902757480444</v>
       </c>
       <c r="Y34" t="n">
-        <v>708.006081990548</v>
+        <v>802.5599891701856</v>
       </c>
     </row>
     <row r="35">
@@ -6937,28 +6937,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>4573.117879057176</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>5029.203358561359</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -6982,7 +6982,7 @@
         <v>3365.887132399956</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="36">
@@ -7019,19 +7019,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M36" t="n">
-        <v>821.6753975134684</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>1582.26891798564</v>
       </c>
       <c r="P36" t="n">
         <v>1910.990343986338</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1041.68756743822</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C37" t="n">
-        <v>869.7150043171358</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D37" t="n">
-        <v>706.3982314439065</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
-        <v>540.1900255967601</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
-        <v>368.3282513713204</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
@@ -7119,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2235.67712750613</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T37" t="n">
-        <v>1992.33777973203</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U37" t="n">
-        <v>1712.153331232334</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V37" t="n">
-        <v>1712.153331232334</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W37" t="n">
-        <v>1700.760201014738</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X37" t="n">
-        <v>1458.196304460543</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y37" t="n">
-        <v>1231.853536150285</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
@@ -7183,10 +7183,10 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N38" t="n">
-        <v>3833.214576747414</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
         <v>3833.214576747414</v>
@@ -7253,28 +7253,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>1429.986740661465</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N39" t="n">
-        <v>1828.971033901635</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O39" t="n">
-        <v>1828.971033901635</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7359,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T40" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U40" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>2119.408873334071</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7420,13 +7420,13 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N41" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O41" t="n">
-        <v>4090.576687723259</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P41" t="n">
         <v>4541.493855905342</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K42" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L42" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M42" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N42" t="n">
-        <v>4225.654392279956</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O42" t="n">
-        <v>5115.135670291427</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P42" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q42" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>326.3817789554925</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C43" t="n">
-        <v>326.3817789554925</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D43" t="n">
-        <v>326.3817789554925</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E43" t="n">
-        <v>326.3817789554925</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F43" t="n">
-        <v>326.3817789554925</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G43" t="n">
-        <v>326.3817789554925</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H43" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
         <v>102.3027134058285</v>
@@ -7593,28 +7593,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T43" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U43" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V43" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W43" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X43" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y43" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
         <v>1264.531207409474</v>
@@ -7648,19 +7648,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>207.5440612468791</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>923.0523692223782</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1852.677416841655</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>2856.963518260713</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N44" t="n">
-        <v>3833.214576747414</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O44" t="n">
         <v>3833.214576747414</v>
@@ -7675,25 +7675,25 @@
         <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T44" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7727,28 +7727,28 @@
         <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>381.4468456473314</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K45" t="n">
-        <v>648.6278400003578</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L45" t="n">
-        <v>648.6278400003578</v>
+        <v>1537.033091018986</v>
       </c>
       <c r="M45" t="n">
-        <v>648.6278400003578</v>
+        <v>1537.033091018986</v>
       </c>
       <c r="N45" t="n">
-        <v>648.6278400003578</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O45" t="n">
-        <v>648.6278400003578</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P45" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q45" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
         <v>1910.990343986338</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3513.576815624178</v>
+        <v>543.5554397491876</v>
       </c>
       <c r="C46" t="n">
-        <v>3341.604252503098</v>
+        <v>371.5828766281036</v>
       </c>
       <c r="D46" t="n">
-        <v>3178.287479629868</v>
+        <v>371.5828766281036</v>
       </c>
       <c r="E46" t="n">
-        <v>3178.287479629868</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F46" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G46" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299896</v>
       </c>
       <c r="K46" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358268</v>
       </c>
       <c r="L46" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302477</v>
       </c>
       <c r="M46" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100498</v>
       </c>
       <c r="N46" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976534</v>
       </c>
       <c r="O46" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656297</v>
       </c>
       <c r="P46" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578198</v>
       </c>
       <c r="Q46" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R46" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="S46" t="n">
-        <v>4945.000622810562</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="T46" t="n">
-        <v>4701.661275036462</v>
+        <v>2039.37639304486</v>
       </c>
       <c r="U46" t="n">
-        <v>4421.476826536767</v>
+        <v>1759.191944545164</v>
       </c>
       <c r="V46" t="n">
-        <v>4139.765359144795</v>
+        <v>1477.480477153193</v>
       </c>
       <c r="W46" t="n">
-        <v>3864.912955317308</v>
+        <v>1202.628073325706</v>
       </c>
       <c r="X46" t="n">
-        <v>3739.919583934437</v>
+        <v>960.0641767715111</v>
       </c>
       <c r="Y46" t="n">
-        <v>3513.576815624178</v>
+        <v>733.7214084612532</v>
       </c>
     </row>
   </sheetData>
@@ -7981,25 +7981,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>498.7615575017792</v>
+        <v>519.5412919487771</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>40.61659560001331</v>
       </c>
       <c r="M2" t="n">
-        <v>521.2079540533999</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>521.0563139884141</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>521.167650509992</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
         <v>153.7764225027789</v>
@@ -8054,19 +8054,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>506.1759249873014</v>
+        <v>138.5273307558415</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>506.2917778681974</v>
       </c>
       <c r="M3" t="n">
-        <v>48.85522789280022</v>
+        <v>506.8734716662958</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
@@ -8075,13 +8075,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>505.5475323587968</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8142,7 +8142,7 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
-        <v>93.31363181978912</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
         <v>417.7126065281028</v>
@@ -8154,7 +8154,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>315.9153581548562</v>
+        <v>29.03818836740707</v>
       </c>
       <c r="Q4" t="n">
         <v>152.9025226039384</v>
@@ -8218,13 +8218,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>204.9191049629863</v>
+        <v>86.17533235500369</v>
       </c>
       <c r="N5" t="n">
         <v>593.5074359500402</v>
@@ -8239,7 +8239,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
         <v>295.0530226965566</v>
@@ -8300,7 +8300,7 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>549.9687528290792</v>
+        <v>542.4468912513905</v>
       </c>
       <c r="M6" t="n">
         <v>579.3245936279221</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
@@ -8394,7 +8394,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8455,16 +8455,16 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>571.1852249800525</v>
       </c>
       <c r="N8" t="n">
-        <v>110.3411813754878</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
         <v>593.6187724716183</v>
@@ -8473,7 +8473,7 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
         <v>35.03264989479647</v>
@@ -8531,31 +8531,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>91.00089423008578</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204228</v>
+        <v>541.7026457419896</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,19 +8689,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
@@ -8713,7 +8713,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>129.1350140843319</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,31 +8765,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>1004.802661823039</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>52.06309604079524</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8926,10 +8926,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>129.8669649843445</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
         <v>977.3272420480539</v>
@@ -8938,7 +8938,7 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
@@ -8947,10 +8947,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>496.8170781441769</v>
+        <v>369.2860653765454</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,22 +9002,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M15" t="n">
-        <v>749.7358553685299</v>
+        <v>400.8313794692496</v>
       </c>
       <c r="N15" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
@@ -9163,19 +9163,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>471.8155959159414</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
@@ -9184,7 +9184,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9239,31 +9239,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>1003.048909524252</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>247.8590127659171</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9409,22 +9409,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O20" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>355.5991224937308</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
         <v>22.39923383333334</v>
@@ -9488,16 +9488,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>669.6242757926666</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>26.37892716579976</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P21" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,22 +9646,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,16 +9713,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>844.0764819672688</v>
       </c>
       <c r="M24" t="n">
         <v>23.09678051232798</v>
@@ -9731,13 +9731,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>657.8632399032651</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
         <v>23.67291939414415</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9883,22 +9883,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
         <v>22.39923383333334</v>
@@ -9962,22 +9962,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>293.0516819980064</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10120,7 +10120,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10129,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>54.56363491934598</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10199,19 +10199,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10357,22 +10357,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,22 +10430,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>529.5908311320803</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10594,22 +10594,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>121.8329647736533</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,22 +10667,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>353.8126856499787</v>
       </c>
       <c r="Q36" t="n">
         <v>22.7470382889785</v>
@@ -10831,13 +10831,13 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>763.430074865614</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O38" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
         <v>753.0089771212694</v>
@@ -10901,7 +10901,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
         <v>22.39923383333334</v>
@@ -10910,22 +10910,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>424.3574658298753</v>
+        <v>226.402256022168</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,16 +11068,16 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>493.0472488628404</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
@@ -11150,13 +11150,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>949.834293434791</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O42" t="n">
-        <v>921.6378271075471</v>
+        <v>26.37892716579976</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
         <v>22.7470382889785</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>135.7243512442234</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
         <v>758.5002654165255</v>
@@ -11305,13 +11305,13 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
         <v>753.0089771212694</v>
@@ -11375,31 +11375,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>292.2790261091175</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>21.34302821354166</v>
+        <v>399.0776271704632</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>108.1431374666144</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>59.40154346742966</v>
       </c>
       <c r="U13" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>116.1691101319039</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>26.70919950627214</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>53.3281253757179</v>
+        <v>71.98949189918861</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>68.15019490184623</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>173.7227752382844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24414,22 +24414,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>7.383900168702553</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>173.6744990182518</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3.579618755105685</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>66.44073542471723</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>110.0981677402064</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>68.15019490184613</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>189.5437509797599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>260.824680873792</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,16 +25599,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
@@ -25797,16 +25797,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>19.29091348988663</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>68.10191868180787</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>116.3948199196098</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>605509.4499704952</v>
+        <v>605509.4499704953</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>605509.4499704953</v>
+        <v>605509.4499704952</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>605509.4499704952</v>
+        <v>605509.4499704953</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>605509.4499704953</v>
+        <v>605509.4499704952</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>605509.4499704951</v>
+        <v>605509.4499704952</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>605509.4499704951</v>
+        <v>605509.4499704952</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>605509.4499704953</v>
+        <v>605509.4499704952</v>
       </c>
     </row>
     <row r="14">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>465954.1344089305</v>
+      </c>
+      <c r="C2" t="n">
         <v>465954.1344089304</v>
-      </c>
-      <c r="C2" t="n">
-        <v>465954.1344089303</v>
       </c>
       <c r="D2" t="n">
         <v>465954.1344089304</v>
       </c>
       <c r="E2" t="n">
-        <v>449624.3225099581</v>
+        <v>449624.3225099579</v>
       </c>
       <c r="F2" t="n">
-        <v>449624.3225099581</v>
+        <v>449624.3225099579</v>
       </c>
       <c r="G2" t="n">
-        <v>449624.3225099575</v>
+        <v>449624.322509958</v>
       </c>
       <c r="H2" t="n">
         <v>449624.3225099579</v>
       </c>
       <c r="I2" t="n">
+        <v>449624.322509958</v>
+      </c>
+      <c r="J2" t="n">
         <v>449624.3225099579</v>
-      </c>
-      <c r="J2" t="n">
-        <v>449624.322509958</v>
       </c>
       <c r="K2" t="n">
         <v>449624.3225099579</v>
       </c>
       <c r="L2" t="n">
-        <v>449624.3225099581</v>
+        <v>449624.3225099578</v>
       </c>
       <c r="M2" t="n">
-        <v>449624.322509958</v>
+        <v>449624.3225099578</v>
       </c>
       <c r="N2" t="n">
+        <v>449624.3225099579</v>
+      </c>
+      <c r="O2" t="n">
         <v>449624.3225099578</v>
-      </c>
-      <c r="O2" t="n">
-        <v>449624.3225099579</v>
       </c>
       <c r="P2" t="n">
         <v>449624.3225099578</v>
@@ -26368,7 +26368,7 @@
         <v>162124.6960695912</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361219</v>
+        <v>23406.83367361228</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26392,19 +26392,19 @@
         <v>126577.2685802888</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035701977</v>
+        <v>18646.60035701984</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>180063.8714551677</v>
+        <v>180063.8714551676</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>5.688425465021952e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26432,28 +26432,28 @@
         <v>72380.62724986373</v>
       </c>
       <c r="G4" t="n">
-        <v>72380.62724986367</v>
+        <v>72380.62724986371</v>
       </c>
       <c r="H4" t="n">
-        <v>72380.62724986373</v>
+        <v>72380.62724986371</v>
       </c>
       <c r="I4" t="n">
-        <v>72380.62724986373</v>
+        <v>72380.62724986371</v>
       </c>
       <c r="J4" t="n">
-        <v>72380.62724986365</v>
+        <v>72380.62724986371</v>
       </c>
       <c r="K4" t="n">
-        <v>72380.62724986367</v>
+        <v>72380.62724986371</v>
       </c>
       <c r="L4" t="n">
         <v>72380.62724986371</v>
       </c>
       <c r="M4" t="n">
-        <v>72380.62724986365</v>
+        <v>72380.62724986362</v>
       </c>
       <c r="N4" t="n">
-        <v>72380.62724986367</v>
+        <v>72380.62724986368</v>
       </c>
       <c r="O4" t="n">
         <v>72380.62724986371</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63041.22282216126</v>
+        <v>63041.22282216125</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>45300.89460459613</v>
+        <v>45300.89460459628</v>
       </c>
       <c r="C6" t="n">
-        <v>192479.984181991</v>
+        <v>192479.9841819909</v>
       </c>
       <c r="D6" t="n">
         <v>215886.8178556032</v>
       </c>
       <c r="E6" t="n">
-        <v>83754.27651502407</v>
+        <v>83703.24585283959</v>
       </c>
       <c r="F6" t="n">
-        <v>299493.6330716647</v>
+        <v>299442.6024094801</v>
       </c>
       <c r="G6" t="n">
-        <v>299493.6330716642</v>
+        <v>299442.6024094803</v>
       </c>
       <c r="H6" t="n">
-        <v>299493.6330716645</v>
+        <v>299442.6024094803</v>
       </c>
       <c r="I6" t="n">
-        <v>299493.6330716645</v>
+        <v>299442.6024094803</v>
       </c>
       <c r="J6" t="n">
-        <v>172916.3644913759</v>
+        <v>172865.3338291914</v>
       </c>
       <c r="K6" t="n">
-        <v>280847.0327146449</v>
+        <v>280796.0020524603</v>
       </c>
       <c r="L6" t="n">
-        <v>299493.6330716647</v>
+        <v>299442.6024094801</v>
       </c>
       <c r="M6" t="n">
-        <v>119429.761616497</v>
+        <v>119378.7309543126</v>
       </c>
       <c r="N6" t="n">
-        <v>299493.6330716644</v>
+        <v>299442.6024094803</v>
       </c>
       <c r="O6" t="n">
-        <v>299493.6330716645</v>
+        <v>299442.6024094801</v>
       </c>
       <c r="P6" t="n">
-        <v>299493.6330716644</v>
+        <v>299442.6024094801</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539681</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>7.11053183127744e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539681</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162603</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539681</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162603</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539681</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162603</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27390,10 +27390,10 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>382.3342483833847</v>
+        <v>39.57239029398988</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
@@ -27438,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>59.33003921451012</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>119.4945152986416</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27618,7 +27618,7 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.7690970142255</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>128.3161759654051</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
@@ -27779,13 +27779,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>68.15019490184558</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>21.43047528078489</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>196.1965332168826</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>11.66829397508718</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28016,13 +28016,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>125.8389504673953</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28067,19 +28067,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>238.4391521182683</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28289,7 +28289,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-4.484950034982556e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28629,7 +28629,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>-1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28757,7 +28757,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28812,7 +28812,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -28994,7 +28994,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>3.016490760880212e-12</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29705,7 +29705,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>-2.555803160098856e-12</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -29985,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-6.416814722304495e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30039,7 +30039,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-7.11053183127743e-14</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30054,7 +30054,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>-8.878873722601852e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30222,7 +30222,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-8.360392837795219e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30705,7 +30705,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -30747,7 +30747,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>-9.379164112033322e-13</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -30857,7 +30857,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>3.205021433435225e-12</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -30878,7 +30878,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>3.110756097157719e-12</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -34701,25 +34701,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>462.9969567069699</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2.304553167390384</v>
       </c>
       <c r="M2" t="n">
-        <v>483.7766911539681</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>483.7766911539681</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
         <v>118.7437726079824</v>
@@ -34774,19 +34774,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>483.7766911539681</v>
+        <v>116.1280969225081</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="M3" t="n">
-        <v>25.75844738047224</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34795,13 +34795,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>483.7766911539681</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34862,7 +34862,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
-        <v>71.39487192408791</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
         <v>395.137166636617</v>
@@ -34874,7 +34874,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>293.5345574968697</v>
+        <v>6.657387709420582</v>
       </c>
       <c r="Q4" t="n">
         <v>128.2829598391535</v>
@@ -34938,13 +34938,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>167.4878420635545</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="N5" t="n">
         <v>556.2278131155941</v>
@@ -34959,7 +34959,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,7 +35011,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
         <v>274.4419083632233</v>
@@ -35020,7 +35020,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>527.4536661148496</v>
+        <v>519.9318045371609</v>
       </c>
       <c r="M6" t="n">
         <v>556.2278131155941</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
@@ -35114,7 +35114,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,16 +35175,16 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
       <c r="M8" t="n">
+        <v>533.7539620806207</v>
+      </c>
+      <c r="N8" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="N8" t="n">
-        <v>73.06155854104179</v>
       </c>
       <c r="O8" t="n">
         <v>556.2278131155941</v>
@@ -35193,7 +35193,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>67.9041137177578</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>556.2278131155941</v>
+        <v>519.9318045371609</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
@@ -35433,7 +35433,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>94.10236418953542</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>981.7058813107108</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>30.72006782725357</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35585,7 +35585,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P13" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968734</v>
       </c>
       <c r="Q13" t="n">
         <v>128.2829598391535</v>
@@ -35646,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>94.10236418953517</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
         <v>939.015199615431</v>
@@ -35658,7 +35658,7 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
@@ -35667,10 +35667,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>460.6924035395789</v>
+        <v>333.1613907719473</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,22 +35722,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M15" t="n">
-        <v>726.6390748562019</v>
+        <v>377.7345989569216</v>
       </c>
       <c r="N15" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>436.0509951211321</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
@@ -35904,7 +35904,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>981.7058813107108</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>225.1119744769386</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36053,7 +36053,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N19" t="n">
-        <v>381.3045564404402</v>
+        <v>381.3045564404439</v>
       </c>
       <c r="O19" t="n">
         <v>359.0183117977405</v>
@@ -36129,22 +36129,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>319.4744478891327</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36208,16 +36208,16 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>646.5274952803386</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>3.207037443577533</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P21" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36290,7 +36290,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N22" t="n">
-        <v>381.3045564404432</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O22" t="n">
         <v>359.0183117977405</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,22 +36366,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>821.5613952530392</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36451,13 +36451,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>634.6913501810429</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q24" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36603,22 +36603,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36682,22 +36682,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36840,7 +36840,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36849,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>19.53098502454951</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,19 +36919,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37001,7 +37001,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N31" t="n">
-        <v>381.3045564404364</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O31" t="n">
         <v>359.0183117977405</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37077,22 +37077,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>507.0757444178507</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37314,22 +37314,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>86.80031487885682</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>332.04184444515</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37551,13 +37551,13 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>726.1504520311679</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
         <v>715.433615311038</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37630,22 +37630,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>403.0144376163336</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37788,16 +37788,16 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>455.4718870526091</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
         <v>460.6924035395789</v>
@@ -37870,13 +37870,13 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>928.4912652212494</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O42" t="n">
-        <v>898.4659373853249</v>
+        <v>3.207037443577533</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>106.3043917586369</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
         <v>722.7356646217162</v>
@@ -38025,13 +38025,13 @@
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
         <v>715.433615311038</v>
@@ -38095,31 +38095,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>269.8797922757842</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>377.7345989569216</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127384</v>
       </c>
       <c r="K46" t="n">
         <v>228.8157587937749</v>
